--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="507">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-14T20:50:06+00:00</t>
+    <t>2022-03-18T18:31:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>Patient.telecom</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">ContactPoint
@@ -4487,7 +4490,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
@@ -4499,19 +4502,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4575,16 +4578,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4592,7 +4595,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4618,16 +4621,16 @@
         <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4655,10 +4658,10 @@
         <v>186</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4676,7 +4679,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4691,16 +4694,16 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4708,7 +4711,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4731,19 +4734,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4792,7 +4795,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4807,24 +4810,24 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4847,19 +4850,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4896,17 +4899,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4921,7 +4924,7 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>160</v>
@@ -4930,7 +4933,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4938,10 +4941,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>79</v>
@@ -4963,19 +4966,19 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5024,7 +5027,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5039,7 +5042,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>160</v>
@@ -5048,7 +5051,7 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5056,7 +5059,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5079,19 +5082,19 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5140,7 +5143,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5155,16 +5158,16 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5172,7 +5175,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5284,7 +5287,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5398,7 +5401,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5424,16 +5427,16 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5446,7 +5449,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5461,10 +5464,10 @@
         <v>186</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5482,7 +5485,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5506,7 +5509,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5514,7 +5517,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5540,13 +5543,13 @@
         <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5560,7 +5563,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5575,10 +5578,10 @@
         <v>186</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5596,7 +5599,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5620,7 +5623,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5628,7 +5631,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5654,13 +5657,13 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>195</v>
@@ -5676,7 +5679,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5712,7 +5715,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5736,7 +5739,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5744,7 +5747,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5770,10 +5773,10 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5788,7 +5791,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -5824,7 +5827,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5839,7 +5842,7 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5848,7 +5851,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5856,11 +5859,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5882,10 +5885,10 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5900,7 +5903,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -5936,7 +5939,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5951,7 +5954,7 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -5960,7 +5963,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5968,11 +5971,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5994,13 +5997,13 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6014,7 +6017,7 @@
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>79</v>
@@ -6050,7 +6053,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6065,7 +6068,7 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6074,7 +6077,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6082,11 +6085,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6108,10 +6111,10 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6162,7 +6165,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6177,7 +6180,7 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6186,7 +6189,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6194,11 +6197,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6220,10 +6223,10 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6238,7 +6241,7 @@
         <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>79</v>
@@ -6274,7 +6277,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6289,7 +6292,7 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6298,7 +6301,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6306,7 +6309,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6332,13 +6335,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6388,7 +6391,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6403,7 +6406,7 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6412,7 +6415,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6420,7 +6423,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6446,14 +6449,14 @@
         <v>228</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6466,7 +6469,7 @@
         <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>79</v>
@@ -6502,7 +6505,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6526,7 +6529,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6534,7 +6537,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6557,17 +6560,17 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6592,13 +6595,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6616,7 +6619,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6631,16 +6634,16 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6648,7 +6651,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6671,19 +6674,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6732,7 +6735,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6747,7 +6750,7 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>160</v>
@@ -6756,7 +6759,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6764,7 +6767,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6787,19 +6790,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6848,7 +6851,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6863,7 +6866,7 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>160</v>
@@ -6872,7 +6875,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6880,7 +6883,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6903,19 +6906,19 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6964,7 +6967,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6976,10 +6979,10 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>160</v>
@@ -6996,7 +6999,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7108,7 +7111,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7222,11 +7225,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7248,10 +7251,10 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>135</v>
@@ -7306,7 +7309,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7338,7 +7341,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7361,17 +7364,17 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7396,13 +7399,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7420,7 +7423,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7435,7 +7438,7 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>160</v>
@@ -7444,7 +7447,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7452,7 +7455,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7478,14 +7481,14 @@
         <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7534,7 +7537,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7558,7 +7561,7 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7566,7 +7569,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7589,19 +7592,19 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7650,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7665,7 +7668,7 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>160</v>
@@ -7674,7 +7677,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7682,7 +7685,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7705,17 +7708,17 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7764,7 +7767,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7779,7 +7782,7 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>160</v>
@@ -7788,7 +7791,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7796,7 +7799,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7822,14 +7825,14 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -7857,10 +7860,10 @@
         <v>186</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7878,7 +7881,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7893,7 +7896,7 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>160</v>
@@ -7902,7 +7905,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7910,7 +7913,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7933,17 +7936,17 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -7992,7 +7995,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8001,13 +8004,13 @@
         <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>160</v>
@@ -8016,7 +8019,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8024,7 +8027,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8050,10 +8053,10 @@
         <v>228</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8104,7 +8107,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8119,7 +8122,7 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>160</v>
@@ -8136,7 +8139,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8159,19 +8162,19 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8220,7 +8223,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8235,10 +8238,10 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8252,7 +8255,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8364,7 +8367,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8478,11 +8481,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8504,10 +8507,10 @@
         <v>132</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>135</v>
@@ -8562,7 +8565,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8594,7 +8597,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8617,19 +8620,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8678,7 +8681,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>86</v>
@@ -8693,16 +8696,16 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8710,7 +8713,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8736,16 +8739,16 @@
         <v>153</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8794,7 +8797,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8809,16 +8812,16 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8826,11 +8829,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8849,16 +8852,16 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8908,7 +8911,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8923,7 +8926,7 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>160</v>
@@ -8932,7 +8935,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8940,7 +8943,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8963,19 +8966,19 @@
         <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9024,7 +9027,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9039,10 +9042,10 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
@@ -9056,7 +9059,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9079,19 +9082,19 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9140,7 +9143,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9155,7 +9158,7 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>160</v>
@@ -9172,7 +9175,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9284,7 +9287,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9398,11 +9401,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9424,10 +9427,10 @@
         <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>135</v>
@@ -9482,7 +9485,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9514,7 +9517,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9537,16 +9540,16 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9596,7 +9599,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>86</v>
@@ -9620,7 +9623,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9628,7 +9631,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9654,10 +9657,10 @@
         <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9687,10 +9690,10 @@
         <v>186</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9708,7 +9711,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>86</v>
@@ -9723,7 +9726,7 @@
         <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>160</v>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T18:31:40+00:00</t>
+    <t>2022-03-25T22:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>General constraints on the Patient resource for use in the BC Client Registry project for queries.</t>
+    <t>General constraints on the Patient resource for use in the BC Client Registry project for Find Candidates queries.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T22:02:43+00:00</t>
+    <t>2022-03-29T20:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T20:42:47+00:00</t>
+    <t>2022-04-01T14:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T14:00:38+00:00</t>
+    <t>2022-04-04T20:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-04T20:52:49+00:00</t>
+    <t>2022-04-05T16:12:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T16:12:45+00:00</t>
+    <t>2022-04-05T17:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T17:59:30+00:00</t>
+    <t>2022-04-18T22:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-18T22:34:02+00:00</t>
+    <t>2022-04-19T16:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-19T16:13:11+00:00</t>
+    <t>2022-04-20T20:38:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BCPatientByExample</t>
+    <t>PatientByExample</t>
   </si>
   <si>
     <t>Title</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T20:38:51+00:00</t>
+    <t>2022-05-17T18:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>General constraints on the Patient resource for use in the BC Client Registry project for Find Candidates queries.</t>
+    <t>General constraints on the Patient resource for use in the BC Client Registry project for queries.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T18:05:03+00:00</t>
+    <t>2022-06-06T16:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T16:35:02+00:00</t>
+    <t>2022-06-06T19:02:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T19:02:23+00:00</t>
+    <t>2022-06-06T20:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T20:42:46+00:00</t>
+    <t>2022-06-14T16:27:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-14T16:27:05+00:00</t>
+    <t>2022-07-12T18:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1919,45 +1919,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.46875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T18:21:32+00:00</t>
+    <t>2022-07-13T16:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T16:07:41+00:00</t>
+    <t>2022-07-20T21:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:33:26+00:00</t>
+    <t>2022-07-20T21:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:53:07+00:00</t>
+    <t>2022-07-20T21:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T21:57:20+00:00</t>
+    <t>2022-07-25T23:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:19:23+00:00</t>
+    <t>2022-07-26T13:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:53:56+00:00</t>
+    <t>2022-07-26T20:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:21:45+00:00</t>
+    <t>2022-07-26T20:30:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:30:24+00:00</t>
+    <t>2022-07-26T20:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:32:00+00:00</t>
+    <t>2022-07-26T20:38:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:38:10+00:00</t>
+    <t>2022-07-26T20:48:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:48:14+00:00</t>
+    <t>2022-07-26T20:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:53:01+00:00</t>
+    <t>2022-07-26T20:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:56:12+00:00</t>
+    <t>2022-07-26T20:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T20:57:39+00:00</t>
+    <t>2022-07-26T21:21:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:21:24+00:00</t>
+    <t>2022-07-26T21:40:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:40:22+00:00</t>
+    <t>2022-07-26T21:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:41:29+00:00</t>
+    <t>2022-07-26T21:42:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:01+00:00</t>
+    <t>2022-07-26T21:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:42:43+00:00</t>
+    <t>2022-07-26T21:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:43:18+00:00</t>
+    <t>2022-08-15T19:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T19:44:05+00:00</t>
+    <t>2022-08-15T20:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T20:51:57+00:00</t>
+    <t>2022-08-16T21:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T21:28:14+00:00</t>
+    <t>2022-08-23T21:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:30:49+00:00</t>
+    <t>2022-09-08T16:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -284,7 +284,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -553,6 +553,10 @@
   </si>
   <si>
     <t>Patient.name.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3480,13 +3484,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3537,7 +3541,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3569,7 +3573,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3598,7 +3602,7 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>135</v>
@@ -3639,19 +3643,19 @@
         <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3683,7 +3687,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3709,16 +3713,16 @@
         <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3743,11 +3747,11 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3765,7 +3769,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3780,7 +3784,7 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -3789,7 +3793,7 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3797,7 +3801,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3820,19 +3824,19 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>79</v>
@@ -3881,7 +3885,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3896,7 +3900,7 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -3905,7 +3909,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3913,11 +3917,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3936,16 +3940,16 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3995,7 +3999,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -4010,7 +4014,7 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4019,7 +4023,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4027,11 +4031,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4050,16 +4054,16 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4109,7 +4113,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4124,7 +4128,7 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4133,7 +4137,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4141,7 +4145,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4164,13 +4168,13 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4221,7 +4225,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4236,7 +4240,7 @@
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4245,7 +4249,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4253,7 +4257,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4276,13 +4280,13 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4333,7 +4337,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4348,7 +4352,7 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4357,7 +4361,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4365,7 +4369,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4388,17 +4392,17 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4447,7 +4451,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4462,7 +4466,7 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4471,7 +4475,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4479,7 +4483,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4490,7 +4494,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
@@ -4502,19 +4506,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4563,7 +4567,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4578,16 +4582,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4595,7 +4599,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4621,16 +4625,16 @@
         <v>106</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4655,13 +4659,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4679,7 +4683,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4694,16 +4698,16 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4711,7 +4715,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4734,19 +4738,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>79</v>
@@ -4795,7 +4799,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4810,24 +4814,24 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4850,19 +4854,19 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4899,17 +4903,17 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4924,7 +4928,7 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>160</v>
@@ -4933,7 +4937,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4941,10 +4945,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>79</v>
@@ -4966,19 +4970,19 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5027,7 +5031,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -5042,7 +5046,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>160</v>
@@ -5051,7 +5055,7 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5059,7 +5063,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5082,19 +5086,19 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>79</v>
@@ -5143,7 +5147,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5158,16 +5162,16 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5175,7 +5179,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5198,13 +5202,13 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5255,7 +5259,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5287,7 +5291,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5316,7 +5320,7 @@
         <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>135</v>
@@ -5357,19 +5361,19 @@
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5401,7 +5405,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5427,16 +5431,16 @@
         <v>106</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5449,7 +5453,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5461,13 +5465,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5485,7 +5489,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5500,7 +5504,7 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5509,7 +5513,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5517,7 +5521,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5543,13 +5547,13 @@
         <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5563,7 +5567,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5575,13 +5579,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5599,7 +5603,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5614,7 +5618,7 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5623,7 +5627,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5631,7 +5635,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5654,19 +5658,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5679,7 +5683,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5715,7 +5719,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5730,7 +5734,7 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5739,7 +5743,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5747,7 +5751,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5770,13 +5774,13 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5791,7 +5795,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -5827,7 +5831,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5842,7 +5846,7 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5851,7 +5855,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5859,11 +5863,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5882,13 +5886,13 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5903,7 +5907,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -5939,7 +5943,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5954,7 +5958,7 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -5963,7 +5967,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5971,11 +5975,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5994,16 +5998,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6017,7 +6021,7 @@
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>79</v>
@@ -6053,7 +6057,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -6068,7 +6072,7 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6077,7 +6081,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6085,11 +6089,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6108,13 +6112,13 @@
         <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6165,7 +6169,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6180,7 +6184,7 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6189,7 +6193,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6197,11 +6201,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -6220,13 +6224,13 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6241,7 +6245,7 @@
         <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>79</v>
@@ -6277,7 +6281,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6292,7 +6296,7 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6301,7 +6305,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6309,7 +6313,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6332,16 +6336,16 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6391,7 +6395,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6406,7 +6410,7 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6415,7 +6419,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6423,7 +6427,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6446,17 +6450,17 @@
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
@@ -6469,7 +6473,7 @@
         <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>79</v>
@@ -6505,7 +6509,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6520,7 +6524,7 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6529,7 +6533,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6537,7 +6541,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6560,17 +6564,17 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6595,13 +6599,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6619,7 +6623,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6634,16 +6638,16 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6651,7 +6655,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6674,19 +6678,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6735,7 +6739,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6750,7 +6754,7 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>160</v>
@@ -6759,7 +6763,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6767,7 +6771,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6790,19 +6794,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6851,7 +6855,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6866,7 +6870,7 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>160</v>
@@ -6875,7 +6879,7 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6883,7 +6887,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6906,19 +6910,19 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6967,7 +6971,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6979,10 +6983,10 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>160</v>
@@ -6999,7 +7003,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7022,13 +7026,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7079,7 +7083,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -7111,7 +7115,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7140,7 +7144,7 @@
         <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>135</v>
@@ -7193,7 +7197,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7225,11 +7229,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7251,10 +7255,10 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>135</v>
@@ -7309,7 +7313,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7341,7 +7345,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7364,17 +7368,17 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7399,13 +7403,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7423,7 +7427,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7438,7 +7442,7 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>160</v>
@@ -7447,7 +7451,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7455,7 +7459,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7481,14 +7485,14 @@
         <v>163</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7537,7 +7541,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7561,7 +7565,7 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7569,7 +7573,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7592,19 +7596,19 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7653,7 +7657,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7668,7 +7672,7 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>160</v>
@@ -7677,7 +7681,7 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7685,7 +7689,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7708,17 +7712,17 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7767,7 +7771,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7782,7 +7786,7 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>160</v>
@@ -7791,7 +7795,7 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7799,7 +7803,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7825,14 +7829,14 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -7857,13 +7861,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7881,7 +7885,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7896,7 +7900,7 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>160</v>
@@ -7905,7 +7909,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7913,7 +7917,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7936,17 +7940,17 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
@@ -7995,7 +7999,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -8004,13 +8008,13 @@
         <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>160</v>
@@ -8019,7 +8023,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8027,7 +8031,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8050,13 +8054,13 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8107,7 +8111,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -8122,7 +8126,7 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>160</v>
@@ -8139,7 +8143,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8162,19 +8166,19 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8223,7 +8227,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8238,10 +8242,10 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8255,7 +8259,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8278,13 +8282,13 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8335,7 +8339,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -8367,7 +8371,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8396,7 +8400,7 @@
         <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>135</v>
@@ -8449,7 +8453,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8481,11 +8485,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8507,10 +8511,10 @@
         <v>132</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>135</v>
@@ -8565,7 +8569,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8597,7 +8601,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8620,19 +8624,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8681,7 +8685,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>86</v>
@@ -8696,16 +8700,16 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8713,7 +8717,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8739,16 +8743,16 @@
         <v>153</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8797,7 +8801,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8812,16 +8816,16 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8829,11 +8833,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8852,16 +8856,16 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8911,7 +8915,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8926,7 +8930,7 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>160</v>
@@ -8935,7 +8939,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8943,7 +8947,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8966,19 +8970,19 @@
         <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>79</v>
@@ -9027,7 +9031,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -9042,10 +9046,10 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
@@ -9059,7 +9063,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9082,19 +9086,19 @@
         <v>87</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9143,7 +9147,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -9158,7 +9162,7 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>160</v>
@@ -9175,7 +9179,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9198,13 +9202,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9255,7 +9259,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9287,7 +9291,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9316,7 +9320,7 @@
         <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>135</v>
@@ -9369,7 +9373,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9401,11 +9405,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9427,10 +9431,10 @@
         <v>132</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>135</v>
@@ -9485,7 +9489,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9517,7 +9521,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9540,16 +9544,16 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9599,7 +9603,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>86</v>
@@ -9623,7 +9627,7 @@
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9631,7 +9635,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9657,10 +9661,10 @@
         <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9687,13 +9691,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9711,7 +9715,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>86</v>
@@ -9726,7 +9730,7 @@
         <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>160</v>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:47:29+00:00</t>
+    <t>2022-09-08T16:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:52:01+00:00</t>
+    <t>2022-09-08T20:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T20:49:17+00:00</t>
+    <t>2022-09-08T22:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T22:16:21+00:00</t>
+    <t>2022-09-20T22:52:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -847,36 +847,37 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
+    <t>boolean
+dateTime</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not</t>
+  </si>
+  <si>
+    <t>Indicates if the individual is deceased or not.</t>
+  </si>
+  <si>
+    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.</t>
+  </si>
+  <si>
+    <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
+  </si>
+  <si>
+    <t>PID-30  (bool) and PID-29 (datetime)</t>
+  </si>
+  <si>
+    <t>deceasedDateTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">dateTime
 </t>
-  </si>
-  <si>
-    <t>Indicates if the individual is deceased or not</t>
-  </si>
-  <si>
-    <t>Indicates if the individual is deceased or not.</t>
-  </si>
-  <si>
-    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.</t>
-  </si>
-  <si>
-    <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
-  </si>
-  <si>
-    <t>PID-30  (bool) and PID-29 (datetime)</t>
-  </si>
-  <si>
-    <t>deceasedDateTime</t>
   </si>
   <si>
     <t>Patient.address</t>
@@ -4910,7 +4911,7 @@
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>266</v>
@@ -4928,7 +4929,7 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>160</v>
@@ -4937,7 +4938,7 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4948,7 +4949,7 @@
         <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>79</v>
@@ -4970,7 +4971,7 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>268</v>
@@ -5046,7 +5047,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>160</v>
@@ -5055,7 +5056,7 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T22:52:25+00:00</t>
+    <t>2022-09-21T21:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T21:21:33+00:00</t>
+    <t>2022-09-22T20:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T20:32:21+00:00</t>
+    <t>2022-10-04T16:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-04T16:21:03+00:00</t>
+    <t>2022-10-05T16:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T16:43:24+00:00</t>
+    <t>2022-10-05T17:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="632">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T17:01:44+00:00</t>
+    <t>2022-10-14T20:19:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Patient</t>
+    <t>http://hl7.org/fhir/ca/baseline/StructureDefinition/profile-patient</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -259,14 +259,10 @@
     <t/>
   </si>
   <si>
-    <t>Information about an individual or animal receiving health care services</t>
-  </si>
-  <si>
-    <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>Patient Profile</t>
+  </si>
+  <si>
+    <t>The Patient Profile is based upon the core FHIR Patient Resource</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -422,33 +418,105 @@
     <t>Patient.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>aboriginalidentitygroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca/baseline/StructureDefinition/ext-aboriginalidentitygroup}
+</t>
+  </si>
+  <si>
+    <t>Extension: Aboriginal Identity Group</t>
+  </si>
+  <si>
+    <t>A code classifying the person's aboriginal identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>aboriginalidentityindicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca/baseline/StructureDefinition/ext-aboriginalidentityindicator}
+</t>
+  </si>
+  <si>
+    <t>Extension: Aboriginal Identity Indicator</t>
+  </si>
+  <si>
+    <t>A code classifying the person's self identity as an aboriginal person</t>
+  </si>
+  <si>
+    <t>This attribute is based on the belief of the person or the person reporting the attribute, not on any formal analysis of genetic, geneological or historical relationships as these would need to be captured as observations.</t>
+  </si>
+  <si>
+    <t>birthsex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca/baseline/StructureDefinition/ext-patientbirthsex}
+</t>
+  </si>
+  <si>
+    <t>Extension: Sex at Birth</t>
+  </si>
+  <si>
+    <t>A code classifying the person's sex assigned at birth  as specified by the [TODO: assigning authority]. This extension aligns with the C-CDA Birth Sex Observation (LOINC 76689-9)</t>
+  </si>
+  <si>
+    <t>The codes required are intended to present birth sex (i.e., the sex recorded on the patient’s birth certificate) and not gender identity or reassigned sex.</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
+  </si>
+  <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca/baseline/StructureDefinition/ext-ethnicity}
+</t>
+  </si>
+  <si>
+    <t>Extension: ethnicity extension</t>
+  </si>
+  <si>
+    <t>A code classifying the person's ethnic group or ethnicity as the category of people who identify with each other, usually on the basis of a presumed common genealogy or ancestry or on other similarities.</t>
+  </si>
+  <si>
+    <t>Person.ethnicGroupCode</t>
+  </si>
+  <si>
+    <t>Patient.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Patient.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -456,6 +524,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -465,29 +536,244 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {http://hl7.org/fhir/ca/baseline/StructureDefinition/profile-identifier}
 </t>
   </si>
   <si>
-    <t>An identifier for this patient</t>
-  </si>
-  <si>
-    <t>An identifier for this patient.</t>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
   </si>
   <si>
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PID-3</t>
+    <t xml:space="preserve">pattern:type}
+</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>JHN</t>
+  </si>
+  <si>
+    <t>Patient.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Patient.identifier.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>versionCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca/baseline/StructureDefinition/ext-identifierversion}
+</t>
+  </si>
+  <si>
+    <t>Health Number Version Code</t>
+  </si>
+  <si>
+    <t>A code indicating a specific version of an identifier credential</t>
+  </si>
+  <si>
+    <t>For example, a health card version number, credit card version number, etc.  Used to help verify the authenticity of a credential</t>
+  </si>
+  <si>
+    <t>Patient.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Patient.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+    &lt;code value="JHN"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>A Health Number Naming System from the Canadian URI Registry</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -518,9 +804,6 @@
     <t>statusCode</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>FiveWs.status</t>
   </si>
   <si>
@@ -543,6 +826,10 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ca-baseline-name:Patient.name.given  or Patient.name.family or both SHALL be present {family.exists() or given.exists()}</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -555,38 +842,15 @@
     <t>Patient.name.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Patient.name.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Patient.name.use</t>
   </si>
   <si>
@@ -600,9 +864,6 @@
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-name-use-value-set</t>
@@ -730,10 +991,6 @@
     <t>Patient.name.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period when name was/is in use</t>
   </si>
   <si>
@@ -783,6 +1040,122 @@
     <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
+    <t>Patient.telecom.id</t>
+  </si>
+  <si>
+    <t>Patient.telecom.extension</t>
+  </si>
+  <si>
+    <t>Patient.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>Patient.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>Patient.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>Patient.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Patient.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
     <t>Patient.gender</t>
   </si>
   <si>
@@ -802,9 +1175,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
   </si>
   <si>
     <t>.patient.administrativeGenderCode</t>
@@ -912,6 +1282,32 @@
   </si>
   <si>
     <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-preferred}
+</t>
+  </si>
+  <si>
+    <t>HL7 Preferred Address Flag extension</t>
+  </si>
+  <si>
+    <t>Flag denoting whether parent address item is preferred</t>
+  </si>
+  <si>
+    <t>noFixedAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/ca/baseline/StructureDefinition/ext-nofixedaddress}
+</t>
+  </si>
+  <si>
+    <t>No Fixed Address indicator</t>
+  </si>
+  <si>
+    <t>Flag indicating that there is an assertion that there is no fixed address</t>
+  </si>
+  <si>
+    <t>An assertion that there is no fixed address</t>
   </si>
   <si>
     <t>Patient.address.use</t>
@@ -1161,10 +1557,6 @@
     <t>Patient.maritalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Marital (civil) status of a patient</t>
   </si>
   <si>
@@ -1172,9 +1564,6 @@
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>The domestic partnership status of a person.</t>
@@ -1378,10 +1767,6 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization that is associated with the contact</t>
   </si>
   <si>
@@ -1580,6 +1965,9 @@
   </si>
   <si>
     <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>PID-3, MRG-1</t>
@@ -1915,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1925,7 +2313,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1947,7 +2335,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.46875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2182,13 +2570,13 @@
         <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>79</v>
@@ -2202,7 +2590,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2213,28 +2601,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2284,13 +2672,13 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>79</v>
@@ -2316,7 +2704,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2327,25 +2715,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2396,19 +2784,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2428,7 +2816,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2445,22 +2833,22 @@
         <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2510,19 +2898,19 @@
         <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>79</v>
@@ -2542,7 +2930,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2565,16 +2953,16 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2600,43 +2988,43 @@
         <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>79</v>
@@ -2656,18 +3044,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>79</v>
@@ -2679,16 +3067,16 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2738,22 +3126,22 @@
         <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -2770,11 +3158,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2793,16 +3181,16 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2852,7 +3240,7 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2867,7 +3255,7 @@
         <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>79</v>
@@ -2884,11 +3272,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2907,17 +3295,15 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2954,19 +3340,17 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2978,10 +3362,10 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -2998,30 +3382,32 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>139</v>
@@ -3029,12 +3415,8 @@
       <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3082,7 +3464,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3091,32 +3473,34 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AK10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3125,30 +3509,30 @@
         <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3196,7 +3580,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3205,22 +3589,22 @@
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3228,9 +3612,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3239,116 +3625,114 @@
         <v>77</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3357,32 +3741,30 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3430,7 +3812,7 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
@@ -3439,22 +3821,22 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
@@ -3462,39 +3844,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3542,22 +3928,22 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3574,21 +3960,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3597,18 +3983,18 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
       </c>
@@ -3644,19 +4030,17 @@
         <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3665,13 +4049,13 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -3680,7 +4064,7 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3688,9 +4072,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3699,31 +4085,29 @@
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
@@ -3748,11 +4132,13 @@
         <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>79</v>
@@ -3770,22 +4156,22 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -3794,7 +4180,7 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -3802,7 +4188,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3813,7 +4199,7 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
@@ -3822,23 +4208,19 @@
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3886,22 +4268,22 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -3910,7 +4292,7 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3918,18 +4300,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -3938,20 +4320,18 @@
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -3988,34 +4368,34 @@
         <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4024,7 +4404,7 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
@@ -4032,11 +4412,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4052,19 +4434,19 @@
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4114,7 +4496,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -4126,10 +4508,10 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4138,7 +4520,7 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4146,7 +4528,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4157,28 +4539,32 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4202,13 +4588,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4226,22 +4612,22 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4250,7 +4636,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4258,7 +4644,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4266,10 +4652,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>79</v>
@@ -4278,25 +4664,29 @@
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>79</v>
@@ -4314,13 +4704,13 @@
         <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>79</v>
@@ -4338,22 +4728,22 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4362,7 +4752,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4370,7 +4760,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4378,32 +4768,34 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>79</v>
@@ -4416,7 +4808,7 @@
         <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>79</v>
@@ -4452,22 +4844,22 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4476,15 +4868,15 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4492,35 +4884,33 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4532,7 +4922,7 @@
         <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>79</v>
@@ -4568,39 +4958,39 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4611,32 +5001,28 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4660,13 +5046,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4684,39 +5070,39 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4727,32 +5113,30 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4800,39 +5184,39 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4843,36 +5227,38 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="Q26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4904,41 +5290,43 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -4946,11 +5334,9 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4959,31 +5345,31 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>79</v>
@@ -5032,39 +5418,39 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5075,32 +5461,28 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5148,31 +5530,31 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>284</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5180,18 +5562,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>79</v>
@@ -5203,15 +5585,17 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
@@ -5248,34 +5632,34 @@
         <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5292,41 +5676,43 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5350,46 +5736,44 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5398,7 +5782,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5406,7 +5790,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5417,31 +5801,31 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>79</v>
@@ -5454,7 +5838,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5466,13 +5850,13 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>79</v>
@@ -5490,22 +5874,22 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5514,7 +5898,7 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
@@ -5522,39 +5906,39 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5568,7 +5952,7 @@
         <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5580,13 +5964,13 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>79</v>
@@ -5604,22 +5988,22 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5628,7 +6012,7 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
@@ -5636,43 +6020,41 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5684,7 +6066,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5720,22 +6102,22 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
@@ -5744,7 +6126,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -5752,7 +6134,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5772,16 +6154,16 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5796,7 +6178,7 @@
         <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>317</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>79</v>
@@ -5832,7 +6214,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5844,10 +6226,10 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5856,7 +6238,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -5864,36 +6246,36 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5908,7 +6290,7 @@
         <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>79</v>
@@ -5944,22 +6326,22 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -5968,7 +6350,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5976,41 +6358,41 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6022,7 +6404,7 @@
         <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>79</v>
@@ -6058,22 +6440,22 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6082,47 +6464,51 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6170,31 +6556,31 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6202,18 +6588,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6222,16 +6608,16 @@
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>176</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
+        <v>177</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6246,7 +6632,7 @@
         <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>79</v>
@@ -6282,22 +6668,22 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>350</v>
+        <v>178</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>351</v>
+        <v>179</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6306,7 +6692,7 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6314,18 +6700,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>79</v>
@@ -6334,19 +6720,19 @@
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>354</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>162</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6384,34 +6770,34 @@
         <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>182</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6420,7 +6806,7 @@
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6428,7 +6814,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6436,33 +6822,31 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6474,7 +6858,7 @@
         <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>79</v>
@@ -6486,13 +6870,13 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6510,22 +6894,22 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>234</v>
+        <v>336</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -6534,7 +6918,7 @@
         <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6542,7 +6926,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6550,10 +6934,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6562,20 +6946,22 @@
         <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>368</v>
+        <v>175</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6600,13 +6986,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6624,31 +7010,31 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
@@ -6656,7 +7042,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6667,31 +7053,31 @@
         <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>379</v>
+        <v>105</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6716,13 +7102,13 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6740,31 +7126,31 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>384</v>
+        <v>272</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6772,7 +7158,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6783,7 +7169,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6792,23 +7178,21 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>391</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6856,31 +7240,31 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>392</v>
+        <v>179</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>393</v>
+        <v>179</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6888,7 +7272,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6899,7 +7283,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>79</v>
@@ -6908,23 +7292,19 @@
         <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>395</v>
+        <v>228</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6972,39 +7352,39 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>400</v>
+        <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>401</v>
+        <v>315</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>402</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7015,28 +7395,32 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>173</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7060,13 +7444,13 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>79</v>
@@ -7084,73 +7468,75 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>375</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7198,74 +7584,74 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>181</v>
+        <v>374</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>385</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>141</v>
+        <v>389</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>79</v>
@@ -7302,53 +7688,53 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>129</v>
+        <v>391</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7357,29 +7743,31 @@
         <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>79</v>
@@ -7404,13 +7792,13 @@
         <v>79</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>413</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>79</v>
@@ -7428,39 +7816,39 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7471,29 +7859,31 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>163</v>
+        <v>396</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7542,31 +7932,31 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>160</v>
+        <v>402</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7574,7 +7964,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7585,7 +7975,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7597,20 +7987,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>423</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7658,31 +8044,31 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>422</v>
+        <v>178</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>243</v>
+        <v>179</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -7690,7 +8076,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7701,7 +8087,7 @@
         <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>79</v>
@@ -7713,18 +8099,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>428</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>132</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7760,43 +8144,43 @@
         <v>79</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>427</v>
+        <v>182</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -7804,9 +8188,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B52" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="C52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7815,7 +8201,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7827,18 +8213,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>247</v>
+        <v>407</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>434</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7862,13 +8246,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7886,31 +8270,31 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7918,9 +8302,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B53" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="C53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7929,7 +8315,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -7941,18 +8327,18 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8000,31 +8386,31 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>436</v>
+        <v>182</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8032,7 +8418,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8043,28 +8429,32 @@
         <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8076,7 +8466,7 @@
         <v>79</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>79</v>
@@ -8088,13 +8478,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -8112,31 +8502,31 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>447</v>
+        <v>272</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>423</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8144,7 +8534,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8155,7 +8545,7 @@
         <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -8164,23 +8554,21 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>395</v>
+        <v>105</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8192,7 +8580,7 @@
         <v>79</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>79</v>
@@ -8204,13 +8592,13 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>430</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>79</v>
@@ -8228,31 +8616,31 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>453</v>
+        <v>272</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8260,7 +8648,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8271,28 +8659,32 @@
         <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>173</v>
+        <v>434</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8304,7 +8696,7 @@
         <v>79</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>79</v>
@@ -8340,22 +8732,22 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>175</v>
+        <v>438</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -8364,7 +8756,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8372,11 +8764,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8392,20 +8784,18 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>441</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>79</v>
@@ -8418,7 +8808,7 @@
         <v>79</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>79</v>
@@ -8454,7 +8844,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>181</v>
+        <v>444</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8466,10 +8856,10 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>160</v>
+        <v>445</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8478,7 +8868,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8486,43 +8876,39 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8534,7 +8920,7 @@
         <v>79</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>79</v>
@@ -8570,22 +8956,22 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>129</v>
+        <v>453</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8594,7 +8980,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8602,43 +8988,41 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>368</v>
+        <v>175</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8650,7 +9034,7 @@
         <v>79</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>79</v>
@@ -8662,13 +9046,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8686,31 +9070,31 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8718,43 +9102,39 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>79</v>
+        <v>465</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>470</v>
-      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8802,31 +9182,31 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8834,18 +9214,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8854,20 +9234,18 @@
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>476</v>
+        <v>175</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8880,7 +9258,7 @@
         <v>79</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>79</v>
@@ -8916,31 +9294,31 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8948,7 +9326,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8959,7 +9337,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -8968,23 +9346,21 @@
         <v>79</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>437</v>
+        <v>175</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9032,31 +9408,31 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9064,7 +9440,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9075,31 +9451,29 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>395</v>
+        <v>228</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -9112,7 +9486,7 @@
         <v>79</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>79</v>
@@ -9148,31 +9522,31 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>493</v>
+        <v>315</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9180,7 +9554,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9191,7 +9565,7 @@
         <v>77</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9203,16 +9577,18 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>494</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>174</v>
+        <v>495</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9236,13 +9612,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -9260,31 +9636,31 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>175</v>
+        <v>493</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>160</v>
+        <v>499</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9292,18 +9668,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>79</v>
@@ -9315,18 +9691,20 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>132</v>
+        <v>503</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>504</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>177</v>
+        <v>505</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>506</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9374,31 +9752,31 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>181</v>
+        <v>502</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>160</v>
+        <v>508</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9406,42 +9784,42 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>132</v>
+        <v>511</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>406</v>
+        <v>512</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>407</v>
+        <v>513</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>135</v>
+        <v>514</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>141</v>
+        <v>515</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
@@ -9490,7 +9868,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>408</v>
+        <v>510</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9502,19 +9880,19 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>129</v>
+        <v>516</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9522,7 +9900,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9530,10 +9908,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>79</v>
@@ -9542,21 +9920,23 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9604,31 +9984,31 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>98</v>
+        <v>524</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>148</v>
+        <v>525</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9636,7 +10016,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9644,10 +10024,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>79</v>
@@ -9656,16 +10036,16 @@
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>504</v>
+        <v>176</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>505</v>
+        <v>177</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9692,13 +10072,13 @@
         <v>79</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>506</v>
+        <v>79</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>79</v>
@@ -9716,38 +10096,2670 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>503</v>
+        <v>178</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AG68" t="s" s="2">
+      <c r="I70" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+      <c r="J70" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9757,7 +12769,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-14T20:19:28+00:00</t>
+    <t>2022-11-09T18:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:06:00+00:00</t>
+    <t>2022-11-09T18:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T18:16:12+00:00</t>
+    <t>2022-11-14T18:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T18:26:34+00:00</t>
+    <t>2022-11-14T19:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:03:53+00:00</t>
+    <t>2022-11-30T18:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T18:54:03+00:00</t>
+    <t>2022-11-30T20:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -866,7 +866,7 @@
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>http://hlth.gov.bc.ca/fhir/client/ValueSet/bc-name-use-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ClientRegistry/ValueSet/bc-name-use-value-set</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -2336,7 +2336,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.46875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="76.23828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:29:42+00:00</t>
+    <t>2022-12-01T22:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="651">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T23:56:39+00:00</t>
+    <t>2023-01-30T21:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,6 +260,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Patient Profile</t>
@@ -2561,13 +2565,13 @@
         <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2633,10 +2637,10 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>80</v>
@@ -2650,10 +2654,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2664,7 +2668,7 @@
         <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -2673,19 +2677,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2735,13 +2739,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2767,10 +2771,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2781,7 +2785,7 @@
         <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -2790,16 +2794,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2850,19 +2854,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2882,10 +2886,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2902,22 +2906,22 @@
         <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2967,19 +2971,19 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -2999,10 +3003,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3025,16 +3029,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3060,13 +3064,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -3084,19 +3088,19 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -3116,21 +3120,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -3142,16 +3146,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3201,22 +3205,22 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>80</v>
@@ -3233,14 +3237,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3259,16 +3263,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3318,7 +3322,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -3333,7 +3337,7 @@
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>80</v>
@@ -3350,10 +3354,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3376,13 +3380,13 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3421,17 +3425,17 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3443,7 +3447,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -3463,13 +3467,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>80</v>
@@ -3479,7 +3483,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
@@ -3491,13 +3495,13 @@
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3548,7 +3552,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3557,10 +3561,10 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -3580,13 +3584,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
@@ -3596,7 +3600,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
@@ -3608,16 +3612,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3667,7 +3671,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3676,10 +3680,10 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3699,13 +3703,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
@@ -3715,7 +3719,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3727,16 +3731,16 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3786,7 +3790,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3795,13 +3799,13 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
@@ -3818,13 +3822,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
@@ -3834,7 +3838,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
@@ -3846,16 +3850,16 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3905,7 +3909,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3914,13 +3918,13 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
@@ -3937,14 +3941,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3957,25 +3961,25 @@
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -4024,7 +4028,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4036,10 +4040,10 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
@@ -4056,10 +4060,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4070,10 +4074,10 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
@@ -4082,17 +4086,17 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -4129,17 +4133,17 @@
         <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4148,13 +4152,13 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -4163,7 +4167,7 @@
         <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -4171,13 +4175,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>80</v>
@@ -4187,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -4199,17 +4203,17 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4258,7 +4262,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4267,13 +4271,13 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -4282,7 +4286,7 @@
         <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -4290,10 +4294,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4304,7 +4308,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -4316,13 +4320,13 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4373,13 +4377,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -4388,7 +4392,7 @@
         <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
@@ -4405,10 +4409,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4431,13 +4435,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4476,19 +4480,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4500,7 +4504,7 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4520,13 +4524,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>80</v>
@@ -4548,16 +4552,16 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4607,7 +4611,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4619,7 +4623,7 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4639,10 +4643,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4653,31 +4657,31 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4702,13 +4706,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4726,22 +4730,22 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
@@ -4750,7 +4754,7 @@
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4758,10 +4762,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4769,10 +4773,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4781,29 +4785,29 @@
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>80</v>
@@ -4821,13 +4825,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4845,22 +4849,22 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -4869,7 +4873,7 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4877,10 +4881,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4888,10 +4892,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4900,22 +4904,22 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4928,7 +4932,7 @@
         <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>80</v>
@@ -4964,22 +4968,22 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -4988,7 +4992,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4996,10 +5000,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5007,10 +5011,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -5019,19 +5023,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5045,7 +5049,7 @@
         <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>80</v>
@@ -5081,22 +5085,22 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -5105,7 +5109,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5113,10 +5117,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5127,7 +5131,7 @@
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -5136,16 +5140,16 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5196,22 +5200,22 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -5220,7 +5224,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5228,10 +5232,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5242,7 +5246,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -5251,19 +5255,19 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5313,22 +5317,22 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -5337,7 +5341,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5345,10 +5349,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5365,97 +5369,97 @@
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="P26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q26" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5466,10 +5470,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5480,31 +5484,31 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5553,7 +5557,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5565,19 +5569,19 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5585,10 +5589,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5599,7 +5603,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5611,13 +5615,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5668,13 +5672,13 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>80</v>
@@ -5683,7 +5687,7 @@
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5700,14 +5704,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5726,16 +5730,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5773,19 +5777,19 @@
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5797,10 +5801,10 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5817,10 +5821,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5831,31 +5835,31 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5880,11 +5884,11 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5902,22 +5906,22 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5926,7 +5930,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5934,10 +5938,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5948,7 +5952,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5957,22 +5961,22 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -6021,22 +6025,22 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -6045,7 +6049,7 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -6053,21 +6057,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -6076,19 +6080,19 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6138,22 +6142,22 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -6162,7 +6166,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6170,14 +6174,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6193,19 +6197,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6255,7 +6259,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6267,10 +6271,10 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -6279,7 +6283,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6287,10 +6291,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6310,16 +6314,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6370,7 +6374,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6382,10 +6386,10 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -6394,7 +6398,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6402,10 +6406,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6425,16 +6429,16 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6485,7 +6489,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6497,10 +6501,10 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6509,7 +6513,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6517,10 +6521,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6531,7 +6535,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6540,20 +6544,20 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6602,22 +6606,22 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6626,7 +6630,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6634,10 +6638,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6648,31 +6652,31 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6721,7 +6725,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6733,19 +6737,19 @@
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6753,10 +6757,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6767,7 +6771,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6779,13 +6783,13 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6836,13 +6840,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6851,7 +6855,7 @@
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6868,14 +6872,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6894,16 +6898,16 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6941,19 +6945,19 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6965,10 +6969,10 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6985,10 +6989,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6996,10 +7000,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -7008,16 +7012,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7044,13 +7048,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -7068,22 +7072,22 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -7092,7 +7096,7 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7100,10 +7104,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7111,10 +7115,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -7123,22 +7127,22 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7187,22 +7191,22 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -7211,7 +7215,7 @@
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7219,10 +7223,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7233,31 +7237,31 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7282,13 +7286,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7306,22 +7310,22 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -7330,7 +7334,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7338,10 +7342,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7352,7 +7356,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7361,19 +7365,19 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7423,22 +7427,22 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -7447,7 +7451,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7455,10 +7459,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7469,7 +7473,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7478,16 +7482,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7538,22 +7542,22 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -7562,7 +7566,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7570,10 +7574,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7584,31 +7588,31 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7633,13 +7637,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7657,31 +7661,31 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7689,10 +7693,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7703,31 +7707,31 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7776,42 +7780,42 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7822,31 +7826,31 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7883,41 +7887,41 @@
         <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7925,13 +7929,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>80</v>
@@ -7941,31 +7945,31 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8014,31 +8018,31 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8046,10 +8050,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8060,31 +8064,31 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8133,7 +8137,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8145,19 +8149,19 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8165,10 +8169,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8179,7 +8183,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -8191,13 +8195,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8248,13 +8252,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -8263,7 +8267,7 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -8280,10 +8284,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8306,13 +8310,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8351,19 +8355,19 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8375,7 +8379,7 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -8395,13 +8399,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="B52" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="C52" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>80</v>
@@ -8411,7 +8415,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8423,13 +8427,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8480,7 +8484,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8492,7 +8496,7 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8512,13 +8516,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>80</v>
@@ -8528,7 +8532,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8540,16 +8544,16 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8599,7 +8603,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8611,7 +8615,7 @@
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -8631,10 +8635,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8645,31 +8649,31 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8682,7 +8686,7 @@
         <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>80</v>
@@ -8694,13 +8698,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8718,22 +8722,22 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8742,7 +8746,7 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8750,10 +8754,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8764,7 +8768,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8773,19 +8777,19 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8799,7 +8803,7 @@
         <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>80</v>
@@ -8811,13 +8815,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8835,22 +8839,22 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8859,7 +8863,7 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8867,10 +8871,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8881,7 +8885,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8890,22 +8894,22 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8918,7 +8922,7 @@
         <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>80</v>
@@ -8954,22 +8958,22 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8978,7 +8982,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8986,10 +8990,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9009,16 +9013,16 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9033,7 +9037,7 @@
         <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>80</v>
@@ -9069,7 +9073,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9081,10 +9085,10 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -9093,7 +9097,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9101,21 +9105,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9124,16 +9128,16 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9148,7 +9152,7 @@
         <v>80</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>80</v>
@@ -9184,22 +9188,22 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -9208,7 +9212,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9216,21 +9220,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9239,19 +9243,19 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9265,7 +9269,7 @@
         <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>80</v>
@@ -9301,22 +9305,22 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -9325,7 +9329,7 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9333,21 +9337,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9356,16 +9360,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9416,22 +9420,22 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -9440,7 +9444,7 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -9448,21 +9452,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9471,16 +9475,16 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9495,7 +9499,7 @@
         <v>80</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>80</v>
@@ -9531,22 +9535,22 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -9555,7 +9559,7 @@
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9563,10 +9567,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9577,7 +9581,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9586,19 +9590,19 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9648,22 +9652,22 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9672,7 +9676,7 @@
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9680,10 +9684,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9694,7 +9698,7 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9703,20 +9707,20 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9729,7 +9733,7 @@
         <v>80</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>80</v>
@@ -9765,22 +9769,22 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9789,7 +9793,7 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9797,10 +9801,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9823,17 +9827,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9858,13 +9862,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9882,31 +9886,31 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9914,10 +9918,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9940,19 +9944,19 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10001,31 +10005,31 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10033,10 +10037,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10059,19 +10063,19 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10120,7 +10124,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10132,19 +10136,19 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10152,10 +10156,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10178,19 +10182,19 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10239,7 +10243,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10251,13 +10255,13 @@
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10271,10 +10275,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10285,7 +10289,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10297,13 +10301,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10354,13 +10358,13 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
@@ -10369,7 +10373,7 @@
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -10386,14 +10390,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10412,16 +10416,16 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10471,7 +10475,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10483,10 +10487,10 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -10503,14 +10507,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10523,25 +10527,25 @@
         <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10590,7 +10594,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10602,10 +10606,10 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10622,10 +10626,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10648,17 +10652,17 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10683,13 +10687,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10707,7 +10711,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10719,19 +10723,19 @@
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10739,10 +10743,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10753,7 +10757,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10765,17 +10769,17 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10824,31 +10828,31 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10856,10 +10860,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10882,19 +10886,19 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10943,7 +10947,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10955,19 +10959,19 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10975,10 +10979,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10989,7 +10993,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11001,17 +11005,17 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11060,31 +11064,31 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11092,10 +11096,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11106,7 +11110,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11118,17 +11122,17 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11153,13 +11157,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11177,31 +11181,31 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11209,10 +11213,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11223,7 +11227,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -11235,17 +11239,17 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11294,31 +11298,31 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11326,10 +11330,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11340,7 +11344,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11352,13 +11356,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11409,25 +11413,25 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
@@ -11441,10 +11445,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11467,19 +11471,19 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11528,7 +11532,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11540,13 +11544,13 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11560,10 +11564,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11574,7 +11578,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11586,13 +11590,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11643,13 +11647,13 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
@@ -11658,7 +11662,7 @@
         <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
@@ -11675,14 +11679,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11701,16 +11705,16 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11760,7 +11764,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11772,10 +11776,10 @@
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
@@ -11792,14 +11796,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11812,25 +11816,25 @@
         <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11879,7 +11883,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11891,10 +11895,10 @@
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -11911,10 +11915,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11922,10 +11926,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -11937,19 +11941,19 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -11974,13 +11978,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11998,31 +12002,31 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12030,10 +12034,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12044,7 +12048,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -12056,19 +12060,19 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12117,31 +12121,31 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12149,14 +12153,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12175,16 +12179,16 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12234,7 +12238,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12246,19 +12250,19 @@
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12266,10 +12270,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12289,22 +12293,22 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12353,25 +12357,25 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12385,10 +12389,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12405,25 +12409,25 @@
         <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12472,7 +12476,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12484,13 +12488,13 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
@@ -12504,10 +12508,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12518,7 +12522,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12530,13 +12534,13 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12587,13 +12591,13 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
@@ -12602,7 +12606,7 @@
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
@@ -12619,14 +12623,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12645,16 +12649,16 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12704,7 +12708,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12716,10 +12720,10 @@
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -12736,14 +12740,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12756,25 +12760,25 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12823,7 +12827,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12835,10 +12839,10 @@
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -12855,10 +12859,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12866,10 +12870,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12878,19 +12882,19 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12940,31 +12944,31 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -12972,10 +12976,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12983,10 +12987,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -12995,16 +12999,16 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13031,13 +13035,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13055,25 +13059,25 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:25:21+00:00</t>
+    <t>2023-01-30T21:26:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T21:26:21+00:00</t>
+    <t>2023-02-01T18:07:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:07:18+00:00</t>
+    <t>2023-02-01T18:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T18:22:44+00:00</t>
+    <t>2023-02-02T00:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T00:15:50+00:00</t>
+    <t>2023-02-02T17:38:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:38:38+00:00</t>
+    <t>2023-02-07T22:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>General constraints on the Patient resource for use in the BC Client Registry project for queries.</t>
+    <t>Will get removed. General constraints on the Patient resource for use in the BC Client Registry project for queries. PatientByExample is a resource of the Client Registry FHIR implementation use only by Get Demographics and Find Candidates</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T22:10:03+00:00</t>
+    <t>2023-02-08T18:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T18:25:04+00:00</t>
+    <t>2023-02-09T00:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:02+00:00</t>
+    <t>2023-02-09T00:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T00:02:19+00:00</t>
+    <t>2023-02-17T22:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T22:47:47+00:00</t>
+    <t>2023-02-17T23:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T23:20:35+00:00</t>
+    <t>2023-02-21T21:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:28:27+00:00</t>
+    <t>2023-02-21T21:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:29:24+00:00</t>
+    <t>2023-04-17T21:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T23:19:40+00:00</t>
+    <t>2023-07-28T15:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T15:45:10+00:00</t>
+    <t>2023-07-28T16:00:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:00:21+00:00</t>
+    <t>2023-07-28T16:52:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T16:52:29+00:00</t>
+    <t>2023-08-14T17:02:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:02:44+00:00</t>
+    <t>2023-08-14T17:37:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="611">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-14T17:37:04+00:00</t>
+    <t>2023-09-14T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>The Patient Profile is based upon the core FHIR Patient Resource</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -2385,13 +2389,13 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>39</v>
@@ -2405,10 +2409,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2419,7 +2423,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -2428,19 +2432,19 @@
         <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2490,13 +2494,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -2522,10 +2526,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2536,7 +2540,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>39</v>
@@ -2545,16 +2549,16 @@
         <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2605,19 +2609,19 @@
         <v>39</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>39</v>
@@ -2637,10 +2641,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2657,22 +2661,22 @@
         <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2722,19 +2726,19 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>39</v>
@@ -2754,10 +2758,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2780,16 +2784,16 @@
         <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2815,13 +2819,13 @@
         <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>39</v>
@@ -2839,19 +2843,19 @@
         <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -2871,21 +2875,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>39</v>
@@ -2897,16 +2901,16 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2956,22 +2960,22 @@
         <v>39</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>39</v>
@@ -2988,14 +2992,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3014,16 +3018,16 @@
         <v>39</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3073,7 +3077,7 @@
         <v>39</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -3088,7 +3092,7 @@
         <v>39</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>39</v>
@@ -3105,10 +3109,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3131,13 +3135,13 @@
         <v>39</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3176,17 +3180,17 @@
         <v>39</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -3198,7 +3202,7 @@
         <v>39</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>39</v>
@@ -3218,13 +3222,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>39</v>
@@ -3234,7 +3238,7 @@
         <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>39</v>
@@ -3246,13 +3250,13 @@
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3303,7 +3307,7 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -3312,10 +3316,10 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -3335,13 +3339,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>39</v>
@@ -3351,7 +3355,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>39</v>
@@ -3363,16 +3367,16 @@
         <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3422,7 +3426,7 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -3431,10 +3435,10 @@
         <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>39</v>
@@ -3454,13 +3458,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>39</v>
@@ -3470,7 +3474,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>39</v>
@@ -3482,16 +3486,16 @@
         <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3541,7 +3545,7 @@
         <v>39</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
@@ -3550,13 +3554,13 @@
         <v>38</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>39</v>
@@ -3573,13 +3577,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>39</v>
@@ -3589,7 +3593,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>39</v>
@@ -3601,16 +3605,16 @@
         <v>39</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3660,7 +3664,7 @@
         <v>39</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -3669,13 +3673,13 @@
         <v>38</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>39</v>
@@ -3692,14 +3696,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3712,25 +3716,25 @@
         <v>39</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>39</v>
@@ -3779,7 +3783,7 @@
         <v>39</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -3791,10 +3795,10 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>39</v>
@@ -3811,10 +3815,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3825,10 +3829,10 @@
         <v>37</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>39</v>
@@ -3837,17 +3841,17 @@
         <v>39</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>39</v>
@@ -3884,17 +3888,17 @@
         <v>39</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
@@ -3903,13 +3907,13 @@
         <v>38</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>39</v>
@@ -3918,7 +3922,7 @@
         <v>39</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>39</v>
@@ -3926,13 +3930,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>39</v>
@@ -3942,7 +3946,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>39</v>
@@ -3954,17 +3958,17 @@
         <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>39</v>
@@ -4013,7 +4017,7 @@
         <v>39</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
@@ -4022,13 +4026,13 @@
         <v>38</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>39</v>
@@ -4037,7 +4041,7 @@
         <v>39</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>39</v>
@@ -4045,10 +4049,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4059,7 +4063,7 @@
         <v>37</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>39</v>
@@ -4071,13 +4075,13 @@
         <v>39</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4128,13 +4132,13 @@
         <v>39</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>39</v>
@@ -4143,7 +4147,7 @@
         <v>39</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>39</v>
@@ -4160,10 +4164,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4186,13 +4190,13 @@
         <v>39</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4231,19 +4235,19 @@
         <v>39</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -4255,7 +4259,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -4275,13 +4279,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>39</v>
@@ -4303,16 +4307,16 @@
         <v>39</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4362,7 +4366,7 @@
         <v>39</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -4374,7 +4378,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -4394,10 +4398,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4408,31 +4412,31 @@
         <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>39</v>
@@ -4457,13 +4461,13 @@
         <v>39</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>39</v>
@@ -4481,22 +4485,22 @@
         <v>39</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>39</v>
@@ -4505,7 +4509,7 @@
         <v>39</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>39</v>
@@ -4513,10 +4517,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4524,10 +4528,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>39</v>
@@ -4536,29 +4540,29 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>39</v>
@@ -4576,13 +4580,13 @@
         <v>39</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>39</v>
@@ -4600,22 +4604,22 @@
         <v>39</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>39</v>
@@ -4624,7 +4628,7 @@
         <v>39</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>39</v>
@@ -4632,10 +4636,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4643,10 +4647,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>39</v>
@@ -4655,22 +4659,22 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>39</v>
@@ -4683,7 +4687,7 @@
         <v>39</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>39</v>
@@ -4719,22 +4723,22 @@
         <v>39</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>39</v>
@@ -4743,7 +4747,7 @@
         <v>39</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>39</v>
@@ -4751,10 +4755,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4762,10 +4766,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>39</v>
@@ -4774,19 +4778,19 @@
         <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4800,7 +4804,7 @@
         <v>39</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>39</v>
@@ -4836,22 +4840,22 @@
         <v>39</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>39</v>
@@ -4860,7 +4864,7 @@
         <v>39</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>39</v>
@@ -4868,10 +4872,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4882,7 +4886,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>39</v>
@@ -4891,16 +4895,16 @@
         <v>39</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4951,22 +4955,22 @@
         <v>39</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>39</v>
@@ -4975,7 +4979,7 @@
         <v>39</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>39</v>
@@ -4983,10 +4987,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4997,7 +5001,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>39</v>
@@ -5006,19 +5010,19 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5068,22 +5072,22 @@
         <v>39</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>39</v>
@@ -5092,7 +5096,7 @@
         <v>39</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>39</v>
@@ -5100,10 +5104,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5120,97 +5124,97 @@
         <v>39</v>
       </c>
       <c r="I25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="J25" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="P25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AI25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>39</v>
@@ -5221,10 +5225,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5235,31 +5239,31 @@
         <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>39</v>
@@ -5308,7 +5312,7 @@
         <v>39</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
@@ -5320,19 +5324,19 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>39</v>
@@ -5340,10 +5344,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5354,7 +5358,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>39</v>
@@ -5366,13 +5370,13 @@
         <v>39</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5423,13 +5427,13 @@
         <v>39</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>39</v>
@@ -5438,7 +5442,7 @@
         <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>39</v>
@@ -5455,14 +5459,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5481,16 +5485,16 @@
         <v>39</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5528,19 +5532,19 @@
         <v>39</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
@@ -5552,10 +5556,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -5572,10 +5576,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5586,31 +5590,31 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>39</v>
@@ -5635,11 +5639,11 @@
         <v>39</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>39</v>
@@ -5657,22 +5661,22 @@
         <v>39</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -5681,7 +5685,7 @@
         <v>39</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>39</v>
@@ -5689,10 +5693,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5703,7 +5707,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>39</v>
@@ -5712,22 +5716,22 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>39</v>
@@ -5776,22 +5780,22 @@
         <v>39</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -5800,7 +5804,7 @@
         <v>39</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>39</v>
@@ -5808,21 +5812,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>39</v>
@@ -5831,19 +5835,19 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5893,22 +5897,22 @@
         <v>39</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>39</v>
@@ -5917,7 +5921,7 @@
         <v>39</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>39</v>
@@ -5925,14 +5929,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5948,19 +5952,19 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6010,7 +6014,7 @@
         <v>39</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
@@ -6022,10 +6026,10 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>39</v>
@@ -6034,7 +6038,7 @@
         <v>39</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>39</v>
@@ -6042,10 +6046,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6065,16 +6069,16 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6125,7 +6129,7 @@
         <v>39</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
@@ -6137,10 +6141,10 @@
         <v>39</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>39</v>
@@ -6149,7 +6153,7 @@
         <v>39</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>39</v>
@@ -6157,10 +6161,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6180,16 +6184,16 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6240,7 +6244,7 @@
         <v>39</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -6252,10 +6256,10 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -6264,7 +6268,7 @@
         <v>39</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>39</v>
@@ -6272,10 +6276,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6286,7 +6290,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>39</v>
@@ -6295,20 +6299,20 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>39</v>
@@ -6357,22 +6361,22 @@
         <v>39</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -6381,7 +6385,7 @@
         <v>39</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>39</v>
@@ -6389,10 +6393,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6403,31 +6407,31 @@
         <v>37</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>39</v>
@@ -6476,7 +6480,7 @@
         <v>39</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
@@ -6488,19 +6492,19 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>39</v>
@@ -6508,10 +6512,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6522,7 +6526,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>39</v>
@@ -6534,13 +6538,13 @@
         <v>39</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6591,13 +6595,13 @@
         <v>39</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>39</v>
@@ -6606,7 +6610,7 @@
         <v>39</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -6623,14 +6627,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6649,16 +6653,16 @@
         <v>39</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6696,19 +6700,19 @@
         <v>39</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
@@ -6720,10 +6724,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -6740,10 +6744,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6751,10 +6755,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>39</v>
@@ -6763,16 +6767,16 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6799,13 +6803,13 @@
         <v>39</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>39</v>
@@ -6823,22 +6827,22 @@
         <v>39</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -6847,7 +6851,7 @@
         <v>39</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>39</v>
@@ -6855,10 +6859,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6866,10 +6870,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>39</v>
@@ -6878,22 +6882,22 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>39</v>
@@ -6942,22 +6946,22 @@
         <v>39</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>39</v>
@@ -6966,7 +6970,7 @@
         <v>39</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>39</v>
@@ -6974,10 +6978,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6988,31 +6992,31 @@
         <v>37</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>39</v>
@@ -7037,13 +7041,13 @@
         <v>39</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>39</v>
@@ -7061,22 +7065,22 @@
         <v>39</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>39</v>
@@ -7085,7 +7089,7 @@
         <v>39</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>39</v>
@@ -7093,10 +7097,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7107,7 +7111,7 @@
         <v>37</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>39</v>
@@ -7116,19 +7120,19 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7178,22 +7182,22 @@
         <v>39</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -7202,7 +7206,7 @@
         <v>39</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>39</v>
@@ -7210,10 +7214,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7224,7 +7228,7 @@
         <v>37</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>39</v>
@@ -7233,16 +7237,16 @@
         <v>39</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7293,22 +7297,22 @@
         <v>39</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -7317,7 +7321,7 @@
         <v>39</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>39</v>
@@ -7325,10 +7329,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7339,31 +7343,31 @@
         <v>37</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>39</v>
@@ -7388,13 +7392,13 @@
         <v>39</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>39</v>
@@ -7412,31 +7416,31 @@
         <v>39</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>39</v>
@@ -7444,10 +7448,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7458,31 +7462,31 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>39</v>
@@ -7531,42 +7535,42 @@
         <v>39</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7577,31 +7581,31 @@
         <v>37</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>39</v>
@@ -7638,41 +7642,41 @@
         <v>39</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>39</v>
@@ -7680,13 +7684,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>39</v>
@@ -7696,31 +7700,31 @@
         <v>37</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>39</v>
@@ -7769,31 +7773,31 @@
         <v>39</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>39</v>
@@ -7801,10 +7805,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7815,31 +7819,31 @@
         <v>37</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>39</v>
@@ -7888,7 +7892,7 @@
         <v>39</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>37</v>
@@ -7900,19 +7904,19 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>39</v>
@@ -7920,10 +7924,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7934,7 +7938,7 @@
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>39</v>
@@ -7946,13 +7950,13 @@
         <v>39</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8003,13 +8007,13 @@
         <v>39</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>39</v>
@@ -8018,7 +8022,7 @@
         <v>39</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -8035,10 +8039,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8061,13 +8065,13 @@
         <v>39</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8106,19 +8110,19 @@
         <v>39</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -8130,7 +8134,7 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>39</v>
@@ -8150,13 +8154,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="B51" t="s" s="2">
-        <v>381</v>
-      </c>
       <c r="C51" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>39</v>
@@ -8166,7 +8170,7 @@
         <v>37</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>39</v>
@@ -8178,13 +8182,13 @@
         <v>39</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8235,7 +8239,7 @@
         <v>39</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
@@ -8247,7 +8251,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>39</v>
@@ -8267,13 +8271,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>39</v>
@@ -8283,7 +8287,7 @@
         <v>37</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>39</v>
@@ -8295,16 +8299,16 @@
         <v>39</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8354,7 +8358,7 @@
         <v>39</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>37</v>
@@ -8366,7 +8370,7 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
@@ -8386,10 +8390,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8400,31 +8404,31 @@
         <v>37</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>39</v>
@@ -8437,7 +8441,7 @@
         <v>39</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>39</v>
@@ -8449,13 +8453,13 @@
         <v>39</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>39</v>
@@ -8473,22 +8477,22 @@
         <v>39</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -8497,7 +8501,7 @@
         <v>39</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>39</v>
@@ -8505,10 +8509,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8519,7 +8523,7 @@
         <v>37</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>39</v>
@@ -8528,19 +8532,19 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8554,7 +8558,7 @@
         <v>39</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>39</v>
@@ -8566,13 +8570,13 @@
         <v>39</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>39</v>
@@ -8590,22 +8594,22 @@
         <v>39</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>39</v>
@@ -8614,7 +8618,7 @@
         <v>39</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>39</v>
@@ -8622,10 +8626,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8636,7 +8640,7 @@
         <v>37</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>39</v>
@@ -8645,22 +8649,22 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>39</v>
@@ -8673,7 +8677,7 @@
         <v>39</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>39</v>
@@ -8709,22 +8713,22 @@
         <v>39</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>39</v>
@@ -8733,7 +8737,7 @@
         <v>39</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>39</v>
@@ -8741,10 +8745,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8764,16 +8768,16 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8788,7 +8792,7 @@
         <v>39</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>39</v>
@@ -8824,7 +8828,7 @@
         <v>39</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>37</v>
@@ -8836,10 +8840,10 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -8848,7 +8852,7 @@
         <v>39</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>39</v>
@@ -8856,21 +8860,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>39</v>
@@ -8879,16 +8883,16 @@
         <v>39</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8903,7 +8907,7 @@
         <v>39</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>39</v>
@@ -8939,22 +8943,22 @@
         <v>39</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -8963,7 +8967,7 @@
         <v>39</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>39</v>
@@ -8971,21 +8975,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>39</v>
@@ -8994,19 +8998,19 @@
         <v>39</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9020,7 +9024,7 @@
         <v>39</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>39</v>
@@ -9056,22 +9060,22 @@
         <v>39</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -9080,7 +9084,7 @@
         <v>39</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>39</v>
@@ -9088,21 +9092,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>39</v>
@@ -9111,16 +9115,16 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9171,22 +9175,22 @@
         <v>39</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -9195,7 +9199,7 @@
         <v>39</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>39</v>
@@ -9203,21 +9207,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>39</v>
@@ -9226,16 +9230,16 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9250,7 +9254,7 @@
         <v>39</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>39</v>
@@ -9286,22 +9290,22 @@
         <v>39</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -9310,7 +9314,7 @@
         <v>39</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>39</v>
@@ -9318,10 +9322,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9332,7 +9336,7 @@
         <v>37</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>39</v>
@@ -9341,19 +9345,19 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9403,22 +9407,22 @@
         <v>39</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>39</v>
@@ -9427,7 +9431,7 @@
         <v>39</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>39</v>
@@ -9435,10 +9439,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9449,7 +9453,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>39</v>
@@ -9458,20 +9462,20 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>39</v>
@@ -9484,7 +9488,7 @@
         <v>39</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>39</v>
@@ -9520,22 +9524,22 @@
         <v>39</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -9544,7 +9548,7 @@
         <v>39</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>39</v>
@@ -9552,10 +9556,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9578,17 +9582,17 @@
         <v>39</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>39</v>
@@ -9613,13 +9617,13 @@
         <v>39</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>39</v>
@@ -9637,31 +9641,31 @@
         <v>39</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>39</v>
@@ -9669,10 +9673,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9695,19 +9699,19 @@
         <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>39</v>
@@ -9756,31 +9760,31 @@
         <v>39</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>39</v>
@@ -9788,10 +9792,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9814,19 +9818,19 @@
         <v>39</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>39</v>
@@ -9875,7 +9879,7 @@
         <v>39</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>37</v>
@@ -9887,19 +9891,19 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>39</v>
@@ -9907,10 +9911,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9933,19 +9937,19 @@
         <v>39</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>39</v>
@@ -9994,7 +9998,7 @@
         <v>39</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>37</v>
@@ -10006,13 +10010,13 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>39</v>
@@ -10026,10 +10030,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10040,7 +10044,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>39</v>
@@ -10052,13 +10056,13 @@
         <v>39</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10109,13 +10113,13 @@
         <v>39</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>39</v>
@@ -10124,7 +10128,7 @@
         <v>39</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -10141,14 +10145,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10167,16 +10171,16 @@
         <v>39</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10226,7 +10230,7 @@
         <v>39</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>37</v>
@@ -10238,10 +10242,10 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>39</v>
@@ -10258,14 +10262,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10278,25 +10282,25 @@
         <v>39</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>39</v>
@@ -10345,7 +10349,7 @@
         <v>39</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>37</v>
@@ -10357,10 +10361,10 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>39</v>
@@ -10377,10 +10381,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10403,17 +10407,17 @@
         <v>39</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>39</v>
@@ -10438,13 +10442,13 @@
         <v>39</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>39</v>
@@ -10462,7 +10466,7 @@
         <v>39</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>37</v>
@@ -10474,19 +10478,19 @@
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>39</v>
@@ -10494,10 +10498,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10508,7 +10512,7 @@
         <v>37</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>39</v>
@@ -10520,17 +10524,17 @@
         <v>39</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>39</v>
@@ -10579,31 +10583,31 @@
         <v>39</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>39</v>
@@ -10611,10 +10615,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10637,19 +10641,19 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>39</v>
@@ -10698,7 +10702,7 @@
         <v>39</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>37</v>
@@ -10710,19 +10714,19 @@
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>39</v>
@@ -10730,10 +10734,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10744,7 +10748,7 @@
         <v>37</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>39</v>
@@ -10756,17 +10760,17 @@
         <v>39</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>39</v>
@@ -10815,31 +10819,31 @@
         <v>39</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>39</v>
@@ -10847,10 +10851,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10861,7 +10865,7 @@
         <v>37</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>39</v>
@@ -10873,17 +10877,17 @@
         <v>39</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>39</v>
@@ -10908,13 +10912,13 @@
         <v>39</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>39</v>
@@ -10932,31 +10936,31 @@
         <v>39</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>39</v>
@@ -10964,10 +10968,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10978,7 +10982,7 @@
         <v>37</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>39</v>
@@ -10990,17 +10994,17 @@
         <v>39</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>39</v>
@@ -11049,31 +11053,31 @@
         <v>39</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>39</v>
@@ -11081,10 +11085,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11095,7 +11099,7 @@
         <v>37</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>39</v>
@@ -11107,13 +11111,13 @@
         <v>39</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11164,25 +11168,25 @@
         <v>39</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>39</v>
@@ -11196,10 +11200,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11222,19 +11226,19 @@
         <v>39</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>39</v>
@@ -11283,7 +11287,7 @@
         <v>39</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>37</v>
@@ -11295,13 +11299,13 @@
         <v>39</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>39</v>
@@ -11315,10 +11319,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11329,7 +11333,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>39</v>
@@ -11341,13 +11345,13 @@
         <v>39</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11398,13 +11402,13 @@
         <v>39</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>39</v>
@@ -11413,7 +11417,7 @@
         <v>39</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>39</v>
@@ -11430,14 +11434,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11456,16 +11460,16 @@
         <v>39</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11515,7 +11519,7 @@
         <v>39</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>37</v>
@@ -11527,10 +11531,10 @@
         <v>39</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>39</v>
@@ -11547,14 +11551,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11567,25 +11571,25 @@
         <v>39</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>39</v>
@@ -11634,7 +11638,7 @@
         <v>39</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>37</v>
@@ -11646,10 +11650,10 @@
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -11666,10 +11670,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11677,10 +11681,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>39</v>
@@ -11692,19 +11696,19 @@
         <v>39</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>39</v>
@@ -11729,13 +11733,13 @@
         <v>39</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>39</v>
@@ -11753,31 +11757,31 @@
         <v>39</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>39</v>
@@ -11785,10 +11789,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11799,7 +11803,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>39</v>
@@ -11811,19 +11815,19 @@
         <v>39</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>39</v>
@@ -11872,31 +11876,31 @@
         <v>39</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>39</v>
@@ -11904,14 +11908,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11930,16 +11934,16 @@
         <v>39</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11989,7 +11993,7 @@
         <v>39</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>37</v>
@@ -12001,19 +12005,19 @@
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>39</v>
@@ -12021,10 +12025,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12044,22 +12048,22 @@
         <v>39</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>39</v>
@@ -12108,25 +12112,25 @@
         <v>39</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>39</v>
@@ -12140,10 +12144,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12160,25 +12164,25 @@
         <v>39</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>39</v>
@@ -12227,7 +12231,7 @@
         <v>39</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>37</v>
@@ -12239,13 +12243,13 @@
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>39</v>
@@ -12259,10 +12263,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12273,7 +12277,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>39</v>
@@ -12285,13 +12289,13 @@
         <v>39</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12342,13 +12346,13 @@
         <v>39</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>39</v>
@@ -12357,7 +12361,7 @@
         <v>39</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -12374,14 +12378,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12400,16 +12404,16 @@
         <v>39</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12459,7 +12463,7 @@
         <v>39</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>37</v>
@@ -12471,10 +12475,10 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>39</v>
@@ -12491,14 +12495,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12511,25 +12515,25 @@
         <v>39</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>39</v>
@@ -12578,7 +12582,7 @@
         <v>39</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>37</v>
@@ -12590,10 +12594,10 @@
         <v>39</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>39</v>
@@ -12610,10 +12614,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12621,10 +12625,10 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>39</v>
@@ -12633,19 +12637,19 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12695,31 +12699,31 @@
         <v>39</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>39</v>
@@ -12727,10 +12731,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12738,10 +12742,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>39</v>
@@ -12750,16 +12754,16 @@
         <v>39</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12786,13 +12790,13 @@
         <v>39</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>39</v>
@@ -12810,25 +12814,25 @@
         <v>39</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-14T16:14:11+00:00</t>
+    <t>2023-10-18T23:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T23:27:00+00:00</t>
+    <t>2023-10-20T17:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T17:32:48+00:00</t>
+    <t>2023-10-20T21:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T21:39:43+00:00</t>
+    <t>2023-10-25T21:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T19:46:50+00:00</t>
+    <t>2024-01-29T03:29:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="665">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -323,10 +323,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Patient.implicitRules</t>
   </si>
   <si>
@@ -346,6 +353,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Patient.language</t>
   </si>
   <si>
@@ -423,26 +433,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Patient.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -469,10 +486,6 @@
     <t>A code classifying the person's aboriginal identity</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Patient.extension:aboriginalidentityindicator</t>
   </si>
   <si>
@@ -536,10 +549,6 @@
     <t>Patient.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -547,9 +556,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -576,16 +582,28 @@
 </t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>Patient.identifier:JHN</t>
+  </si>
+  <si>
+    <t>JHN</t>
+  </si>
+  <si>
     <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
   </si>
   <si>
     <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>Patient.identifier:JHN</t>
-  </si>
-  <si>
-    <t>JHN</t>
   </si>
   <si>
     <t>Patient.identifier:JHN.id</t>
@@ -607,16 +625,13 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Patient.identifier:JHN.extension</t>
   </si>
   <si>
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -792,7 +807,15 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -821,6 +844,10 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
@@ -898,12 +925,6 @@
     <t>Patient.name.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Patient.name.use</t>
   </si>
   <si>
@@ -1014,6 +1035,9 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>HumanName.prefix</t>
   </si>
   <si>
@@ -1084,6 +1108,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -1117,8 +1145,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -1625,6 +1653,9 @@
     <t>This field contains a patient's most recent marital (civil) status.</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
@@ -1690,6 +1721,10 @@
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
   </si>
   <si>
@@ -1778,6 +1813,9 @@
     <t>A name associated with the contact person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
@@ -1808,6 +1846,9 @@
     <t>Address for the contact person.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -1835,11 +1876,14 @@
     <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
-    <t xml:space="preserve">pat-1
-</t>
+    <t>ele-1
+pat-1</t>
   </si>
   <si>
     <t>scoper</t>
@@ -1858,6 +1902,9 @@
   </si>
   <si>
     <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>Patient.communication</t>
@@ -2027,9 +2074,6 @@
   </si>
   <si>
     <t>Referencing a RelatedPerson here removes the need to use a Person record to associate a Patient and RelatedPerson as the same individual.</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>PID-3, MRG-1</t>
@@ -2867,13 +2911,13 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>80</v>
@@ -2890,10 +2934,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2916,16 +2960,16 @@
         <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2975,7 +3019,7 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2984,13 +3028,13 @@
         <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>80</v>
@@ -3007,10 +3051,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -3033,16 +3077,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3068,13 +3112,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -3092,7 +3136,7 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -3101,13 +3145,13 @@
         <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>80</v>
@@ -3124,14 +3168,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3150,16 +3194,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3209,7 +3253,7 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -3218,13 +3262,13 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>80</v>
@@ -3241,14 +3285,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3267,16 +3311,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3326,7 +3370,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -3341,7 +3385,7 @@
         <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>80</v>
@@ -3358,14 +3402,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3384,15 +3428,17 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -3429,17 +3475,19 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3448,13 +3496,13 @@
         <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>80</v>
@@ -3471,16 +3519,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3499,15 +3547,17 @@
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -3556,7 +3606,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3565,13 +3615,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>80</v>
@@ -3588,16 +3638,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3616,16 +3666,16 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3675,7 +3725,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3684,13 +3734,13 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
@@ -3707,16 +3757,16 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3735,16 +3785,16 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3794,7 +3844,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3803,13 +3853,13 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
@@ -3826,16 +3876,16 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3854,16 +3904,16 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3913,7 +3963,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3922,13 +3972,13 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
@@ -3945,14 +3995,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3971,19 +4021,19 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -4020,19 +4070,19 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4041,13 +4091,13 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
@@ -4064,10 +4114,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4087,20 +4137,20 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -4137,17 +4187,17 @@
         <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4156,22 +4206,22 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -4179,13 +4229,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>80</v>
@@ -4207,17 +4257,17 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4266,7 +4316,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4275,13 +4325,13 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -4290,7 +4340,7 @@
         <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -4298,10 +4348,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4324,13 +4374,13 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4381,7 +4431,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4396,7 +4446,7 @@
         <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
@@ -4413,14 +4463,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4439,15 +4489,17 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4484,19 +4536,19 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4505,13 +4557,13 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -4528,23 +4580,23 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4556,16 +4608,16 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4615,7 +4667,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4624,13 +4676,13 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4647,10 +4699,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4673,19 +4725,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4710,13 +4762,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4734,7 +4786,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4743,13 +4795,13 @@
         <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
@@ -4758,7 +4810,7 @@
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4766,10 +4818,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4792,26 +4844,26 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>80</v>
@@ -4829,13 +4881,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4853,7 +4905,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4862,13 +4914,13 @@
         <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -4877,7 +4929,7 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4885,10 +4937,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4911,19 +4963,19 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4936,7 +4988,7 @@
         <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>80</v>
@@ -4972,7 +5024,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4981,13 +5033,13 @@
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
@@ -4996,7 +5048,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5004,10 +5056,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5030,16 +5082,16 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5053,7 +5105,7 @@
         <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="U23" t="s" s="2">
         <v>80</v>
@@ -5089,7 +5141,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5098,13 +5150,13 @@
         <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>80</v>
@@ -5113,7 +5165,7 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5121,10 +5173,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5147,15 +5199,17 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5204,7 +5258,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5213,13 +5267,13 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -5228,7 +5282,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5236,10 +5290,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5262,16 +5316,16 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5321,7 +5375,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5330,13 +5384,13 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -5345,7 +5399,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5353,10 +5407,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5379,25 +5433,25 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q26" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>80</v>
@@ -5442,7 +5496,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5451,19 +5505,19 @@
         <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5474,10 +5528,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5500,19 +5554,19 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5561,7 +5615,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5570,22 +5624,22 @@
         <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5593,10 +5647,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5619,13 +5673,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5676,7 +5730,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5691,7 +5745,7 @@
         <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5708,14 +5762,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5734,16 +5788,16 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5781,19 +5835,19 @@
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5802,13 +5856,13 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5825,10 +5879,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5851,19 +5905,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5888,11 +5942,11 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5910,7 +5964,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5919,13 +5973,13 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5934,7 +5988,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5942,10 +5996,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5968,19 +6022,19 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -6029,7 +6083,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6038,13 +6092,13 @@
         <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -6053,7 +6107,7 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -6061,14 +6115,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6087,16 +6141,16 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6146,7 +6200,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6155,13 +6209,13 @@
         <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -6170,7 +6224,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6178,14 +6232,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6204,16 +6258,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6263,7 +6317,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6272,13 +6326,13 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -6287,7 +6341,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6295,10 +6349,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6321,15 +6375,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6378,7 +6434,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6387,13 +6443,13 @@
         <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>80</v>
@@ -6402,7 +6458,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6410,10 +6466,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6436,15 +6492,17 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6493,7 +6551,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6502,13 +6560,13 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6517,7 +6575,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6525,10 +6583,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6551,17 +6609,19 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6610,7 +6670,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6619,13 +6679,13 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6634,7 +6694,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6642,10 +6702,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6656,7 +6716,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>89</v>
@@ -6668,19 +6728,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6729,7 +6789,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6738,22 +6798,22 @@
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6761,10 +6821,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6787,13 +6847,13 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6844,7 +6904,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6859,7 +6919,7 @@
         <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
@@ -6876,14 +6936,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6902,16 +6962,16 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6949,19 +7009,19 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6970,13 +7030,13 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>80</v>
@@ -6993,10 +7053,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7019,15 +7079,17 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7052,13 +7114,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -7076,7 +7138,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7085,13 +7147,13 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
@@ -7100,7 +7162,7 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7108,10 +7170,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7134,19 +7196,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7195,7 +7257,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7204,13 +7266,13 @@
         <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
@@ -7219,7 +7281,7 @@
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7227,10 +7289,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7253,19 +7315,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7290,13 +7352,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7314,7 +7376,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7323,13 +7385,13 @@
         <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -7338,7 +7400,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7346,10 +7408,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7372,16 +7434,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7431,7 +7493,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7440,13 +7502,13 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -7455,7 +7517,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7463,10 +7525,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7489,15 +7551,17 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7546,7 +7610,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7555,13 +7619,13 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
@@ -7570,7 +7634,7 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7578,10 +7642,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7604,19 +7668,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7641,13 +7705,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7665,7 +7729,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7674,22 +7738,22 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7697,10 +7761,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7723,19 +7787,19 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7784,7 +7848,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7793,33 +7857,33 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7842,19 +7906,19 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7891,17 +7955,17 @@
         <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7910,22 +7974,22 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7933,13 +7997,13 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>80</v>
@@ -7961,19 +8025,19 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8022,7 +8086,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8031,22 +8095,22 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8054,10 +8118,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8080,19 +8144,19 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8141,7 +8205,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8150,22 +8214,22 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8173,10 +8237,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8199,13 +8263,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8256,7 +8320,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8271,7 +8335,7 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -8288,14 +8352,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8314,15 +8378,17 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8359,19 +8425,19 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8380,13 +8446,13 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -8403,16 +8469,16 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8431,15 +8497,17 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8488,7 +8556,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8497,13 +8565,13 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8520,16 +8588,16 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8548,16 +8616,16 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8607,7 +8675,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8616,13 +8684,13 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -8639,10 +8707,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8665,19 +8733,19 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8690,7 +8758,7 @@
         <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>80</v>
@@ -8702,13 +8770,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8726,7 +8794,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8735,13 +8803,13 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8750,7 +8818,7 @@
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8758,10 +8826,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8784,16 +8852,16 @@
         <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8807,7 +8875,7 @@
         <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>80</v>
@@ -8819,13 +8887,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8843,7 +8911,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8852,13 +8920,13 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
@@ -8867,7 +8935,7 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8875,10 +8943,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8901,19 +8969,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8926,7 +8994,7 @@
         <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>80</v>
@@ -8962,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8971,13 +9039,13 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
@@ -8986,7 +9054,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8994,10 +9062,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9020,15 +9088,17 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9041,7 +9111,7 @@
         <v>80</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>80</v>
@@ -9077,7 +9147,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9086,13 +9156,13 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
@@ -9101,7 +9171,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9109,14 +9179,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9135,15 +9205,17 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9156,7 +9228,7 @@
         <v>80</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>80</v>
@@ -9192,7 +9264,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9201,13 +9273,13 @@
         <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -9216,7 +9288,7 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -9224,14 +9296,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9250,16 +9322,16 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9273,7 +9345,7 @@
         <v>80</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>80</v>
@@ -9309,7 +9381,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9318,13 +9390,13 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -9333,7 +9405,7 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9341,14 +9413,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9367,15 +9439,17 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9424,7 +9498,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9433,13 +9507,13 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
@@ -9448,7 +9522,7 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -9456,14 +9530,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9482,15 +9556,17 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9503,7 +9579,7 @@
         <v>80</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>80</v>
@@ -9539,7 +9615,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9548,13 +9624,13 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -9563,7 +9639,7 @@
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9571,10 +9647,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9597,16 +9673,16 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9656,7 +9732,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9665,13 +9741,13 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9680,7 +9756,7 @@
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9688,10 +9764,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9714,17 +9790,19 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9737,7 +9815,7 @@
         <v>80</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>80</v>
@@ -9773,7 +9851,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9782,13 +9860,13 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
@@ -9797,7 +9875,7 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9805,10 +9883,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9831,17 +9909,19 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O64" t="s" s="2">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9866,13 +9946,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -9890,7 +9970,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9899,22 +9979,22 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9922,10 +10002,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9948,19 +10028,19 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10009,7 +10089,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10018,22 +10098,22 @@
         <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10041,10 +10121,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10067,19 +10147,19 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10128,7 +10208,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10137,22 +10217,22 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>545</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10160,10 +10240,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10186,19 +10266,19 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10247,7 +10327,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10256,16 +10336,16 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
@@ -10279,10 +10359,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10305,13 +10385,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10362,7 +10442,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10377,7 +10457,7 @@
         <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
@@ -10394,14 +10474,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10420,16 +10500,16 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10467,19 +10547,19 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10488,13 +10568,13 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
@@ -10511,14 +10591,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10537,19 +10617,19 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10598,7 +10678,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10607,13 +10687,13 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
@@ -10630,10 +10710,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10656,17 +10736,19 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O71" t="s" s="2">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10691,13 +10773,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10715,7 +10797,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10724,22 +10806,22 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10747,10 +10829,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10773,17 +10855,19 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="O72" t="s" s="2">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10832,7 +10916,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10841,22 +10925,22 @@
         <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10864,10 +10948,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10890,19 +10974,19 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10951,7 +11035,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10960,22 +11044,22 @@
         <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10983,10 +11067,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11009,17 +11093,19 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11068,7 +11154,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11077,22 +11163,22 @@
         <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11100,10 +11186,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11126,17 +11212,19 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O75" t="s" s="2">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11161,13 +11249,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11185,7 +11273,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11194,22 +11282,22 @@
         <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11217,10 +11305,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11243,17 +11331,19 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="O76" t="s" s="2">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11302,7 +11392,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11311,22 +11401,22 @@
         <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11334,10 +11424,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11360,15 +11450,17 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11417,7 +11509,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11426,22 +11518,22 @@
         <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>604</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11449,10 +11541,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11475,19 +11567,19 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11536,7 +11628,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11545,16 +11637,16 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
@@ -11568,10 +11660,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11594,13 +11686,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11651,7 +11743,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11666,7 +11758,7 @@
         <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>80</v>
@@ -11683,14 +11775,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11709,16 +11801,16 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11756,19 +11848,19 @@
         <v>80</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11777,13 +11869,13 @@
         <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
@@ -11800,14 +11892,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11826,19 +11918,19 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -11887,7 +11979,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11896,13 +11988,13 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>80</v>
@@ -11919,10 +12011,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11945,19 +12037,19 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -11982,13 +12074,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -12006,7 +12098,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>88</v>
@@ -12015,22 +12107,22 @@
         <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12038,10 +12130,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12064,19 +12156,19 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12125,7 +12217,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12134,22 +12226,22 @@
         <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12157,14 +12249,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12183,16 +12275,16 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12242,7 +12334,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12251,22 +12343,22 @@
         <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12274,10 +12366,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12300,19 +12392,19 @@
         <v>89</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12361,7 +12453,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12370,16 +12462,16 @@
         <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12393,10 +12485,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12419,19 +12511,19 @@
         <v>89</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12480,7 +12572,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12489,16 +12581,16 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
@@ -12512,10 +12604,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12538,13 +12630,13 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12595,7 +12687,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12610,7 +12702,7 @@
         <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>80</v>
@@ -12627,14 +12719,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12653,16 +12745,16 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12700,19 +12792,19 @@
         <v>80</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12721,13 +12813,13 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>188</v>
+        <v>102</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -12744,14 +12836,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12770,19 +12862,19 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12831,7 +12923,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12840,13 +12932,13 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>80</v>
@@ -12863,10 +12955,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12889,16 +12981,16 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12948,7 +13040,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>640</v>
+        <v>654</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>88</v>
@@ -12957,22 +13049,22 @@
         <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>264</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>645</v>
+        <v>180</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -12980,10 +13072,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13006,15 +13098,17 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13039,13 +13133,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13063,7 +13157,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>88</v>
@@ -13072,16 +13166,16 @@
         <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-patient-by-example.xlsx
+++ b/StructureDefinition-bc-patient-by-example.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
